--- a/Dokumentation/Nutzwertanalysen/Aufhängung/Nutzwertanalyse Aufhängung.xlsx
+++ b/Dokumentation/Nutzwertanalysen/Aufhängung/Nutzwertanalyse Aufhängung.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yakupx/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yakupx/Library/Mobile Documents/com~apple~CloudDocs/Documents/Aktuelles/Komplexlabor/Dokumentation/Nutzwertanalysen/Aufhängung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AF0F5B-5D32-884B-89D8-D3A8EA9B9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD45B0-B84D-8A47-BE69-030799498643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="6240" windowWidth="35840" windowHeight="20420" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
+    <workbookView xWindow="20940" yWindow="1560" windowWidth="14900" windowHeight="19360" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabelle 1'!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabelle 1'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Nr.</t>
   </si>
@@ -44,28 +44,58 @@
     <t>Eigenschaft</t>
   </si>
   <si>
-    <t>Summe</t>
-  </si>
-  <si>
     <t>Wertung</t>
   </si>
   <si>
     <t>Nutzwertanalyse Lagerung</t>
   </si>
   <si>
-    <t>Kugellager</t>
-  </si>
-  <si>
-    <t>Gleitlager</t>
-  </si>
-  <si>
-    <t>Bohrung als Lager</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kriterium </t>
   </si>
   <si>
     <t>Bewertung mit +/-/0</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Ästetik</t>
+  </si>
+  <si>
+    <t>Gewicht</t>
+  </si>
+  <si>
+    <t>Fertigungsaufwand</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Montage auf Grundplatte</t>
+  </si>
+  <si>
+    <t>Montage am Deckel</t>
+  </si>
+  <si>
+    <t>Montage in Seiten- &amp; 3D-Druckteil</t>
+  </si>
+  <si>
+    <t>PMMA</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>PMMA &amp; PLA</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -297,29 +327,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,44 +381,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +710,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,262 +721,199 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>3</v>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="22"/>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
